--- a/7/2/2/1/2/Gobierno general 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/2/Gobierno general 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>Serie</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI75"/>
+  <dimension ref="A1:AI76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8327,13 +8330,13 @@
         <v>106</v>
       </c>
       <c r="B75">
-        <v>63409</v>
+        <v>65605</v>
       </c>
       <c r="C75">
-        <v>9540</v>
+        <v>9547</v>
       </c>
       <c r="D75">
-        <v>7411</v>
+        <v>7419</v>
       </c>
       <c r="E75">
         <v>2128</v>
@@ -8348,19 +8351,19 @@
         <v>8544</v>
       </c>
       <c r="I75">
-        <v>7530</v>
+        <v>7541</v>
       </c>
       <c r="J75">
         <v>473</v>
       </c>
       <c r="K75">
-        <v>7058</v>
+        <v>7068</v>
       </c>
       <c r="L75">
-        <v>14948</v>
+        <v>17086</v>
       </c>
       <c r="M75">
-        <v>12467</v>
+        <v>14605</v>
       </c>
       <c r="N75">
         <v>2481</v>
@@ -8375,13 +8378,13 @@
         <v>31</v>
       </c>
       <c r="R75">
-        <v>19161</v>
+        <v>19200</v>
       </c>
       <c r="S75">
-        <v>-23208</v>
+        <v>-21045</v>
       </c>
       <c r="T75">
-        <v>86617</v>
+        <v>86649</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -8399,16 +8402,16 @@
         <v>70166</v>
       </c>
       <c r="Z75">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="AA75">
         <v>0</v>
       </c>
       <c r="AB75">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="AC75">
-        <v>12119</v>
+        <v>12153</v>
       </c>
       <c r="AD75">
         <v>13641</v>
@@ -8427,6 +8430,113 @@
       </c>
       <c r="AI75">
         <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76">
+        <v>66979</v>
+      </c>
+      <c r="C76">
+        <v>10464</v>
+      </c>
+      <c r="D76">
+        <v>8078</v>
+      </c>
+      <c r="E76">
+        <v>2387</v>
+      </c>
+      <c r="F76">
+        <v>9582</v>
+      </c>
+      <c r="G76">
+        <v>564</v>
+      </c>
+      <c r="H76">
+        <v>9018</v>
+      </c>
+      <c r="I76">
+        <v>8916</v>
+      </c>
+      <c r="J76">
+        <v>1157</v>
+      </c>
+      <c r="K76">
+        <v>7759</v>
+      </c>
+      <c r="L76">
+        <v>16791</v>
+      </c>
+      <c r="M76">
+        <v>14478</v>
+      </c>
+      <c r="N76">
+        <v>2313</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>30</v>
+      </c>
+      <c r="Q76">
+        <v>30</v>
+      </c>
+      <c r="R76">
+        <v>21195</v>
+      </c>
+      <c r="S76">
+        <v>-20558</v>
+      </c>
+      <c r="T76">
+        <v>87537</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>72568</v>
+      </c>
+      <c r="X76">
+        <v>3703</v>
+      </c>
+      <c r="Y76">
+        <v>68865</v>
+      </c>
+      <c r="Z76">
+        <v>1405</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>1405</v>
+      </c>
+      <c r="AC76">
+        <v>13564</v>
+      </c>
+      <c r="AD76">
+        <v>9056</v>
+      </c>
+      <c r="AE76">
+        <v>3625</v>
+      </c>
+      <c r="AF76">
+        <v>5431</v>
+      </c>
+      <c r="AG76">
+        <v>37</v>
+      </c>
+      <c r="AH76">
+        <v>9</v>
+      </c>
+      <c r="AI76">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
